--- a/output/1Y_P4_KFSDIV.xlsx
+++ b/output/1Y_P4_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>8.9413</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>8.9801</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="F3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="H3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0043</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>8.6477</v>
       </c>
       <c r="C4" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D4" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2231.9789</v>
+        <v>2227.5168</v>
       </c>
       <c r="F4" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="H4" s="1">
-        <v>19301.4843</v>
+        <v>19224.3611</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19301.4843</v>
+        <v>19224.3611</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.960699999999999</v>
+        <v>8.9786</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9496.717500000001</v>
+        <v>-9497.723</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.037</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3388.3558</v>
+        <v>3381.5849</v>
       </c>
       <c r="F5" s="1">
-        <v>1050.8962</v>
+        <v>1048.7801</v>
       </c>
       <c r="H5" s="1">
-        <v>32422.8377</v>
+        <v>32293.4595</v>
       </c>
       <c r="I5" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="J5" s="1">
-        <v>32926.1202</v>
+        <v>32795.7365</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>8.853899999999999</v>
+        <v>8.871600000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10055.9203</v>
+        <v>-10055.8086</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1237</v>
+        <v>0.1222</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E6" s="1">
-        <v>4439.2519</v>
+        <v>4430.365</v>
       </c>
       <c r="F6" s="1">
-        <v>1066.4433</v>
+        <v>1064.2982</v>
       </c>
       <c r="H6" s="1">
-        <v>41859.4823</v>
+        <v>41691.95</v>
       </c>
       <c r="I6" s="1">
-        <v>447.3622</v>
+        <v>446.4684</v>
       </c>
       <c r="J6" s="1">
-        <v>42306.8446</v>
+        <v>42138.4184</v>
       </c>
       <c r="K6" s="1">
-        <v>40055.9203</v>
+        <v>40055.8086</v>
       </c>
       <c r="L6" s="1">
-        <v>9.023099999999999</v>
+        <v>9.0412</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10055.9203</v>
+        <v>-10055.8086</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0144</v>
+        <v>-0.0154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D7" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E7" s="1">
-        <v>5505.6952</v>
+        <v>5494.6632</v>
       </c>
       <c r="F7" s="1">
-        <v>1047.0554</v>
+        <v>1044.9439</v>
       </c>
       <c r="H7" s="1">
-        <v>52876.1464</v>
+        <v>52665.2478</v>
       </c>
       <c r="I7" s="1">
-        <v>391.442</v>
+        <v>390.6599</v>
       </c>
       <c r="J7" s="1">
-        <v>53267.5884</v>
+        <v>53055.9077</v>
       </c>
       <c r="K7" s="1">
-        <v>50111.8406</v>
+        <v>50111.6171</v>
       </c>
       <c r="L7" s="1">
-        <v>9.101800000000001</v>
+        <v>9.120100000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10055.9203</v>
+        <v>-10055.8086</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0184</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.3595</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E8" s="1">
-        <v>6552.7507</v>
+        <v>6539.6071</v>
       </c>
       <c r="F8" s="1">
-        <v>970.6955</v>
+        <v>968.7397</v>
       </c>
       <c r="H8" s="1">
-        <v>67883.22040000001</v>
+        <v>67611.68979999999</v>
       </c>
       <c r="I8" s="1">
-        <v>335.5217</v>
+        <v>334.8513</v>
       </c>
       <c r="J8" s="1">
-        <v>68218.7421</v>
+        <v>67946.5411</v>
       </c>
       <c r="K8" s="1">
-        <v>60167.7608</v>
+        <v>60167.4257</v>
       </c>
       <c r="L8" s="1">
-        <v>9.1821</v>
+        <v>9.2005</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10055.9203</v>
+        <v>-10055.8086</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.07829999999999999</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.0875</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E9" s="1">
-        <v>7523.4462</v>
+        <v>7508.3468</v>
       </c>
       <c r="F9" s="1">
-        <v>996.8694</v>
+        <v>994.8661</v>
       </c>
       <c r="H9" s="1">
-        <v>75892.76330000001</v>
+        <v>75588.7795</v>
       </c>
       <c r="I9" s="1">
-        <v>279.6014</v>
+        <v>279.0428</v>
       </c>
       <c r="J9" s="1">
-        <v>76172.36470000001</v>
+        <v>75867.8223</v>
       </c>
       <c r="K9" s="1">
-        <v>70223.6811</v>
+        <v>70223.23420000001</v>
       </c>
       <c r="L9" s="1">
-        <v>9.334</v>
+        <v>9.3527</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10055.9203</v>
+        <v>-10055.8086</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0262</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.1692</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E10" s="1">
-        <v>8520.3156</v>
+        <v>8503.2129</v>
       </c>
       <c r="F10" s="1">
-        <v>988.8605</v>
+        <v>986.8698000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>86644.7934</v>
+        <v>86298.2576</v>
       </c>
       <c r="I10" s="1">
-        <v>223.6811</v>
+        <v>223.2342</v>
       </c>
       <c r="J10" s="1">
-        <v>86868.4745</v>
+        <v>86521.49189999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80279.6014</v>
+        <v>80279.0428</v>
       </c>
       <c r="L10" s="1">
-        <v>9.4221</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>2031.3305</v>
+        <v>2027.2536</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8024.5898</v>
+        <v>-8028.5549</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0081</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.0872</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E11" s="1">
-        <v>9509.176100000001</v>
+        <v>9490.082700000001</v>
       </c>
       <c r="F11" s="1">
-        <v>968.056</v>
+        <v>965.9891</v>
       </c>
       <c r="H11" s="1">
-        <v>105430.1373</v>
+        <v>105007.7654</v>
       </c>
       <c r="I11" s="1">
-        <v>2199.0913</v>
+        <v>2194.6793</v>
       </c>
       <c r="J11" s="1">
-        <v>107629.2286</v>
+        <v>107202.4447</v>
       </c>
       <c r="K11" s="1">
-        <v>90335.5217</v>
+        <v>90334.85129999999</v>
       </c>
       <c r="L11" s="1">
-        <v>9.4998</v>
+        <v>9.5189</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10733.0304</v>
+        <v>-10731.5598</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1111</v>
+        <v>0.1107</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.0976</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E12" s="1">
-        <v>10477.2321</v>
+        <v>10456.0719</v>
       </c>
       <c r="F12" s="1">
-        <v>967.1488000000001</v>
+        <v>965.0857</v>
       </c>
       <c r="H12" s="1">
-        <v>116272.131</v>
+        <v>115805.1784</v>
       </c>
       <c r="I12" s="1">
-        <v>1466.0609</v>
+        <v>1463.1195</v>
       </c>
       <c r="J12" s="1">
-        <v>117738.1918</v>
+        <v>117268.2979</v>
       </c>
       <c r="K12" s="1">
-        <v>101068.5521</v>
+        <v>101066.4111</v>
       </c>
       <c r="L12" s="1">
-        <v>9.6465</v>
+        <v>9.665800000000001</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10733.0304</v>
+        <v>-10731.5598</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0009</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.8505</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E13" s="1">
-        <v>11444.3809</v>
+        <v>11421.1576</v>
       </c>
       <c r="F13" s="1">
-        <v>989.1738</v>
+        <v>987.0552</v>
       </c>
       <c r="H13" s="1">
-        <v>124177.2549</v>
+        <v>123677.4309</v>
       </c>
       <c r="I13" s="1">
-        <v>733.0304</v>
+        <v>731.5598</v>
       </c>
       <c r="J13" s="1">
-        <v>124910.2853</v>
+        <v>124408.9906</v>
       </c>
       <c r="K13" s="1">
-        <v>111801.5826</v>
+        <v>111797.9709</v>
       </c>
       <c r="L13" s="1">
-        <v>9.7691</v>
+        <v>9.7887</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4714.7544</v>
+        <v>4705.2323</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6018.276</v>
+        <v>-6026.3274</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0221</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.8576</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E14" s="1">
-        <v>12433.5547</v>
+        <v>12408.2127</v>
       </c>
       <c r="F14" s="1">
-        <v>-12433.5547</v>
+        <v>-12408.2127</v>
       </c>
       <c r="H14" s="1">
-        <v>147432.1183</v>
+        <v>146837.5483</v>
       </c>
       <c r="I14" s="1">
-        <v>4714.7544</v>
+        <v>4705.2323</v>
       </c>
       <c r="J14" s="1">
-        <v>152146.8727</v>
+        <v>151542.7807</v>
       </c>
       <c r="K14" s="1">
-        <v>122534.613</v>
+        <v>122529.5306</v>
       </c>
       <c r="L14" s="1">
-        <v>9.8552</v>
+        <v>9.8749</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>147432.1183</v>
+        <v>146837.5483</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1278</v>
+        <v>0.1275</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>8.9413</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>8.9801</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="F3" s="1">
-        <v>1108.7411</v>
+        <v>1115.4487</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9956.6059</v>
+        <v>-10036.9193</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0043</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>8.6477</v>
       </c>
       <c r="C4" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D4" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2227.1467</v>
+        <v>2231.6198</v>
       </c>
       <c r="F4" s="1">
-        <v>1161.3948</v>
+        <v>1149.8074</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19259.6964</v>
+        <v>19259.7717</v>
       </c>
       <c r="I4" s="1">
-        <v>43.3941</v>
+        <v>-36.9193</v>
       </c>
       <c r="J4" s="1">
-        <v>19303.0906</v>
+        <v>19222.8524</v>
       </c>
       <c r="K4" s="1">
-        <v>19956.6059</v>
+        <v>20036.9193</v>
       </c>
       <c r="L4" s="1">
-        <v>8.960599999999999</v>
+        <v>8.9786</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9540.1116</v>
+        <v>-9460.8038</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0369</v>
+        <v>-0.039</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3388.5415</v>
+        <v>3381.4272</v>
       </c>
       <c r="F5" s="1">
-        <v>791.6673</v>
+        <v>807.1422</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32424.615</v>
+        <v>32291.9533</v>
       </c>
       <c r="I5" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="J5" s="1">
-        <v>32927.8976</v>
+        <v>32794.2302</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>8.853400000000001</v>
+        <v>8.872</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7575.385</v>
+        <v>-7738.9603</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1237</v>
+        <v>0.1222</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E6" s="1">
-        <v>4180.2088</v>
+        <v>4188.5694</v>
       </c>
       <c r="F6" s="1">
-        <v>1122.3555</v>
+        <v>1124.6446</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39416.8609</v>
+        <v>39416.5323</v>
       </c>
       <c r="I6" s="1">
-        <v>2927.8976</v>
+        <v>2763.3167</v>
       </c>
       <c r="J6" s="1">
-        <v>42344.7584</v>
+        <v>42179.849</v>
       </c>
       <c r="K6" s="1">
-        <v>37575.385</v>
+        <v>37738.9603</v>
       </c>
       <c r="L6" s="1">
-        <v>8.988899999999999</v>
+        <v>9.01</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10583.1391</v>
+        <v>-10625.9793</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0136</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D7" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E7" s="1">
-        <v>5302.5643</v>
+        <v>5313.214</v>
       </c>
       <c r="F7" s="1">
-        <v>944.8976</v>
+        <v>946.6976</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50925.2975</v>
+        <v>50926.0932</v>
       </c>
       <c r="I7" s="1">
-        <v>2344.7584</v>
+        <v>2137.3374</v>
       </c>
       <c r="J7" s="1">
-        <v>53270.0559</v>
+        <v>53063.4306</v>
       </c>
       <c r="K7" s="1">
-        <v>48158.5241</v>
+        <v>48364.9396</v>
       </c>
       <c r="L7" s="1">
-        <v>9.082100000000001</v>
+        <v>9.1028</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9074.797</v>
+        <v>-9110.3547</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0177</v>
+        <v>0.0169</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.3595</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E8" s="1">
-        <v>6247.462</v>
+        <v>6259.9115</v>
       </c>
       <c r="F8" s="1">
-        <v>509.6209</v>
+        <v>510.7001</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64720.5823</v>
+        <v>64719.9733</v>
       </c>
       <c r="I8" s="1">
-        <v>3269.9614</v>
+        <v>3026.9828</v>
       </c>
       <c r="J8" s="1">
-        <v>67990.54369999999</v>
+        <v>67746.95600000001</v>
       </c>
       <c r="K8" s="1">
-        <v>57233.3211</v>
+        <v>57475.2942</v>
       </c>
       <c r="L8" s="1">
-        <v>9.161099999999999</v>
+        <v>9.1815</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5279.4177</v>
+        <v>-5301.2208</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0746</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.0875</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E9" s="1">
-        <v>6757.0829</v>
+        <v>6770.6117</v>
       </c>
       <c r="F9" s="1">
-        <v>1173.5243</v>
+        <v>1175.9082</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68162.0735</v>
+        <v>68161.7789</v>
       </c>
       <c r="I9" s="1">
-        <v>7990.5437</v>
+        <v>7725.762</v>
       </c>
       <c r="J9" s="1">
-        <v>76152.6171</v>
+        <v>75887.54090000001</v>
       </c>
       <c r="K9" s="1">
-        <v>62512.7388</v>
+        <v>62776.515</v>
       </c>
       <c r="L9" s="1">
-        <v>9.2514</v>
+        <v>9.2719</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11837.9265</v>
+        <v>-11885.7278</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0236</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.1692</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E10" s="1">
-        <v>7930.6072</v>
+        <v>7946.5199</v>
       </c>
       <c r="F10" s="1">
-        <v>919.6464999999999</v>
+        <v>921.4362</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80647.93060000001</v>
+        <v>80648.436</v>
       </c>
       <c r="I10" s="1">
-        <v>6152.6171</v>
+        <v>5840.0342</v>
       </c>
       <c r="J10" s="1">
-        <v>86800.5477</v>
+        <v>86488.4703</v>
       </c>
       <c r="K10" s="1">
-        <v>74350.6654</v>
+        <v>74662.24280000001</v>
       </c>
       <c r="L10" s="1">
-        <v>9.3752</v>
+        <v>9.3956</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1824.4124</v>
+        <v>1828.0652</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7527.657</v>
+        <v>-7561.0013</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0075</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.0872</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E11" s="1">
-        <v>8850.253699999999</v>
+        <v>8867.956099999999</v>
       </c>
       <c r="F11" s="1">
-        <v>169.1561</v>
+        <v>169.5495</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>98124.53290000001</v>
+        <v>98123.93459999999</v>
       </c>
       <c r="I11" s="1">
-        <v>8624.9601</v>
+        <v>8279.032999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>106749.493</v>
+        <v>106402.9676</v>
       </c>
       <c r="K11" s="1">
-        <v>83702.73480000001</v>
+        <v>84051.3092</v>
       </c>
       <c r="L11" s="1">
-        <v>9.457700000000001</v>
+        <v>9.4781</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-1875.4671</v>
+        <v>-1883.5934</v>
       </c>
       <c r="Q11" s="3">
         <v>0.1028</v>
@@ -1980,34 +1980,34 @@
         <v>11.0976</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E12" s="1">
-        <v>9019.409799999999</v>
+        <v>9037.5056</v>
       </c>
       <c r="F12" s="1">
-        <v>892.6433</v>
+        <v>894.4155</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100093.8019</v>
+        <v>100093.9901</v>
       </c>
       <c r="I12" s="1">
-        <v>16749.493</v>
+        <v>16395.4396</v>
       </c>
       <c r="J12" s="1">
-        <v>116843.2949</v>
+        <v>116489.4296</v>
       </c>
       <c r="K12" s="1">
-        <v>85578.2019</v>
+        <v>85934.9026</v>
       </c>
       <c r="L12" s="1">
-        <v>9.488200000000001</v>
+        <v>9.508699999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9906.1981</v>
+        <v>-9945.722</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.8505</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E13" s="1">
-        <v>9912.053099999999</v>
+        <v>9931.921200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1147.3451</v>
+        <v>1149.6391</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>107550.7317</v>
+        <v>107550.7882</v>
       </c>
       <c r="I13" s="1">
-        <v>16843.2949</v>
+        <v>16449.7176</v>
       </c>
       <c r="J13" s="1">
-        <v>124394.0266</v>
+        <v>124000.5058</v>
       </c>
       <c r="K13" s="1">
-        <v>95484.39999999999</v>
+        <v>95880.6246</v>
       </c>
       <c r="L13" s="1">
-        <v>9.6332</v>
+        <v>9.6538</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4058.7344</v>
+        <v>4066.8775</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8390.5339</v>
+        <v>-8432.343500000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0193</v>
+        <v>-0.0197</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.8576</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E14" s="1">
-        <v>11059.3982</v>
+        <v>11081.5603</v>
       </c>
       <c r="F14" s="1">
-        <v>-11059.3982</v>
+        <v>-11081.5603</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131137.9199</v>
+        <v>131138.0762</v>
       </c>
       <c r="I14" s="1">
-        <v>18452.761</v>
+        <v>18017.3741</v>
       </c>
       <c r="J14" s="1">
-        <v>149590.6809</v>
+        <v>149155.4503</v>
       </c>
       <c r="K14" s="1">
-        <v>107933.6683</v>
+        <v>108379.8456</v>
       </c>
       <c r="L14" s="1">
-        <v>9.759499999999999</v>
+        <v>9.780200000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131137.9199</v>
+        <v>131138.0762</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1131</v>
@@ -2224,16 +2224,16 @@
         <v>8.9413</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>8.9801</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="F3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0043</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>8.6477</v>
       </c>
       <c r="C4" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D4" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2231.9789</v>
+        <v>2227.5168</v>
       </c>
       <c r="F4" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19301.4843</v>
+        <v>19224.3611</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19301.4843</v>
+        <v>19224.3611</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.960699999999999</v>
+        <v>8.9786</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9496.717500000001</v>
+        <v>-9497.723</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.037</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3388.3558</v>
+        <v>3381.5849</v>
       </c>
       <c r="F5" s="1">
-        <v>823.3092</v>
+        <v>838.5036</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32422.8377</v>
+        <v>32293.4595</v>
       </c>
       <c r="I5" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="J5" s="1">
-        <v>32926.1202</v>
+        <v>32795.7365</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>8.853899999999999</v>
+        <v>8.871600000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7878.1636</v>
+        <v>-8039.6564</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1237</v>
+        <v>0.1222</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E6" s="1">
-        <v>4211.665</v>
+        <v>4220.0885</v>
       </c>
       <c r="F6" s="1">
-        <v>1144.1908</v>
+        <v>1146.5239</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39713.474</v>
+        <v>39713.1429</v>
       </c>
       <c r="I6" s="1">
-        <v>2625.119</v>
+        <v>2462.6206</v>
       </c>
       <c r="J6" s="1">
-        <v>42338.5929</v>
+        <v>42175.7635</v>
       </c>
       <c r="K6" s="1">
-        <v>37878.1636</v>
+        <v>38039.6564</v>
       </c>
       <c r="L6" s="1">
-        <v>8.993600000000001</v>
+        <v>9.0139</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10789.0323</v>
+        <v>-10832.7019</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0137</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D7" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E7" s="1">
-        <v>5355.8558</v>
+        <v>5366.6124</v>
       </c>
       <c r="F7" s="1">
-        <v>970.2221</v>
+        <v>972.0716</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51437.1031</v>
+        <v>51437.9068</v>
       </c>
       <c r="I7" s="1">
-        <v>1836.0867</v>
+        <v>1629.9186</v>
       </c>
       <c r="J7" s="1">
-        <v>53273.1898</v>
+        <v>53067.8254</v>
       </c>
       <c r="K7" s="1">
-        <v>48667.1958</v>
+        <v>48872.3583</v>
       </c>
       <c r="L7" s="1">
-        <v>9.0867</v>
+        <v>9.1067</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9318.012699999999</v>
+        <v>-9354.536700000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0179</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.3595</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E8" s="1">
-        <v>6326.0778</v>
+        <v>6338.684</v>
       </c>
       <c r="F8" s="1">
-        <v>533.2102</v>
+        <v>534.3374</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>65535.0032</v>
+        <v>65534.3866</v>
       </c>
       <c r="I8" s="1">
-        <v>2518.074</v>
+        <v>2275.3819</v>
       </c>
       <c r="J8" s="1">
-        <v>68053.07709999999</v>
+        <v>67809.76850000001</v>
       </c>
       <c r="K8" s="1">
-        <v>57985.2086</v>
+        <v>58226.8951</v>
       </c>
       <c r="L8" s="1">
-        <v>9.1661</v>
+        <v>9.186</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5523.7907</v>
+        <v>-5546.5823</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0755</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.0875</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E9" s="1">
-        <v>6859.288</v>
+        <v>6873.0214</v>
       </c>
       <c r="F9" s="1">
-        <v>1211.5014</v>
+        <v>1213.962</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69193.0675</v>
+        <v>69192.7686</v>
       </c>
       <c r="I9" s="1">
-        <v>6994.2833</v>
+        <v>6728.7996</v>
       </c>
       <c r="J9" s="1">
-        <v>76187.3508</v>
+        <v>75921.5681</v>
       </c>
       <c r="K9" s="1">
-        <v>63508.9993</v>
+        <v>63773.4774</v>
       </c>
       <c r="L9" s="1">
-        <v>9.258800000000001</v>
+        <v>9.2788</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12221.0203</v>
+        <v>-12270.3633</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0239</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>10.1692</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E10" s="1">
-        <v>8070.7894</v>
+        <v>8086.9834</v>
       </c>
       <c r="F10" s="1">
-        <v>958.55</v>
+        <v>960.4167</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82073.4713</v>
+        <v>82073.9857</v>
       </c>
       <c r="I10" s="1">
-        <v>4773.263</v>
+        <v>4458.4362</v>
       </c>
       <c r="J10" s="1">
-        <v>86846.7343</v>
+        <v>86532.4219</v>
       </c>
       <c r="K10" s="1">
-        <v>75730.0196</v>
+        <v>76043.84080000001</v>
       </c>
       <c r="L10" s="1">
-        <v>9.3832</v>
+        <v>9.4032</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1852.0078</v>
+        <v>1855.7158</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7895.6792</v>
+        <v>-7930.5458</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0077</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.0872</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E11" s="1">
-        <v>9029.339400000001</v>
+        <v>9047.4</v>
       </c>
       <c r="F11" s="1">
-        <v>195.7367</v>
+        <v>196.1846</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>100110.0919</v>
+        <v>100109.4815</v>
       </c>
       <c r="I11" s="1">
-        <v>6877.5838</v>
+        <v>6527.8905</v>
       </c>
       <c r="J11" s="1">
-        <v>106987.6756</v>
+        <v>106637.3719</v>
       </c>
       <c r="K11" s="1">
-        <v>85477.7065</v>
+        <v>85830.1023</v>
       </c>
       <c r="L11" s="1">
-        <v>9.466699999999999</v>
+        <v>9.486700000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2170.1722</v>
+        <v>-2179.4932</v>
       </c>
       <c r="Q11" s="3">
         <v>0.1047</v>
@@ -2748,34 +2748,34 @@
         <v>11.0976</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E12" s="1">
-        <v>9225.0761</v>
+        <v>9243.5846</v>
       </c>
       <c r="F12" s="1">
-        <v>938.5327</v>
+        <v>940.3966</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>102376.2049</v>
+        <v>102376.3974</v>
       </c>
       <c r="I12" s="1">
-        <v>14707.4116</v>
+        <v>14348.3972</v>
       </c>
       <c r="J12" s="1">
-        <v>117083.6164</v>
+        <v>116724.7946</v>
       </c>
       <c r="K12" s="1">
-        <v>87647.8787</v>
+        <v>88009.5955</v>
       </c>
       <c r="L12" s="1">
-        <v>9.500999999999999</v>
+        <v>9.5212</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10415.4605</v>
+        <v>-10457.0216</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.8505</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E13" s="1">
-        <v>10163.6088</v>
+        <v>10183.9812</v>
       </c>
       <c r="F13" s="1">
-        <v>1205.0492</v>
+        <v>1207.4586</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>110280.2377</v>
+        <v>110280.2956</v>
       </c>
       <c r="I13" s="1">
-        <v>14291.951</v>
+        <v>13891.3756</v>
       </c>
       <c r="J13" s="1">
-        <v>124572.1887</v>
+        <v>124171.6712</v>
       </c>
       <c r="K13" s="1">
-        <v>98063.3392</v>
+        <v>98466.61719999999</v>
       </c>
       <c r="L13" s="1">
-        <v>9.6485</v>
+        <v>9.668799999999999</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4151.2843</v>
+        <v>4159.6131</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8924.1018</v>
+        <v>-8968.2395</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0198</v>
+        <v>-0.0201</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.8576</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E14" s="1">
-        <v>11368.658</v>
+        <v>11391.4398</v>
       </c>
       <c r="F14" s="1">
-        <v>-11368.658</v>
+        <v>-11391.4398</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134804.9992</v>
+        <v>134805.1599</v>
       </c>
       <c r="I14" s="1">
-        <v>15367.8492</v>
+        <v>14923.1361</v>
       </c>
       <c r="J14" s="1">
-        <v>150172.8484</v>
+        <v>149728.2961</v>
       </c>
       <c r="K14" s="1">
-        <v>111138.7253</v>
+        <v>111594.4697</v>
       </c>
       <c r="L14" s="1">
-        <v>9.7759</v>
+        <v>9.7963</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134804.9992</v>
+        <v>134805.1599</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1159</v>
@@ -2992,16 +2992,16 @@
         <v>8.9413</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>8.9801</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="F3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0043</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>8.6477</v>
       </c>
       <c r="C4" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D4" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2231.9789</v>
+        <v>2227.5168</v>
       </c>
       <c r="F4" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19301.4843</v>
+        <v>19224.3611</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19301.4843</v>
+        <v>19224.3611</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.960699999999999</v>
+        <v>8.9786</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9496.717500000001</v>
+        <v>-9497.723</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.037</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3388.3558</v>
+        <v>3381.5849</v>
       </c>
       <c r="F5" s="1">
-        <v>854.9752</v>
+        <v>870.2329</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32422.8377</v>
+        <v>32293.4595</v>
       </c>
       <c r="I5" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="J5" s="1">
-        <v>32926.1202</v>
+        <v>32795.7365</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>8.853899999999999</v>
+        <v>8.871600000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8181.1723</v>
+        <v>-8343.8804</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1237</v>
+        <v>0.1222</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E6" s="1">
-        <v>4243.331</v>
+        <v>4251.8178</v>
       </c>
       <c r="F6" s="1">
-        <v>1166.3504</v>
+        <v>1168.7284</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40012.0653</v>
+        <v>40011.7318</v>
       </c>
       <c r="I6" s="1">
-        <v>2322.1102</v>
+        <v>2158.3966</v>
       </c>
       <c r="J6" s="1">
-        <v>42334.1755</v>
+        <v>42170.1284</v>
       </c>
       <c r="K6" s="1">
-        <v>38181.1723</v>
+        <v>38343.8804</v>
       </c>
       <c r="L6" s="1">
-        <v>8.9979</v>
+        <v>9.0182</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10997.9848</v>
+        <v>-11042.4963</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0138</v>
+        <v>-0.0146</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D7" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E7" s="1">
-        <v>5409.6814</v>
+        <v>5420.5462</v>
       </c>
       <c r="F7" s="1">
-        <v>996.0653</v>
+        <v>997.9655</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51954.0395</v>
+        <v>51954.8513</v>
       </c>
       <c r="I7" s="1">
-        <v>1324.1254</v>
+        <v>1115.9003</v>
       </c>
       <c r="J7" s="1">
-        <v>53278.1649</v>
+        <v>53070.7516</v>
       </c>
       <c r="K7" s="1">
-        <v>49179.1571</v>
+        <v>49386.3767</v>
       </c>
       <c r="L7" s="1">
-        <v>9.090999999999999</v>
+        <v>9.111000000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9566.2107</v>
+        <v>-9603.721</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.018</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.3595</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E8" s="1">
-        <v>6405.7467</v>
+        <v>6418.5117</v>
       </c>
       <c r="F8" s="1">
-        <v>557.4612</v>
+        <v>558.6377</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>66360.3328</v>
+        <v>66359.7084</v>
       </c>
       <c r="I8" s="1">
-        <v>1757.9147</v>
+        <v>1512.1794</v>
       </c>
       <c r="J8" s="1">
-        <v>68118.2475</v>
+        <v>67871.8878</v>
       </c>
       <c r="K8" s="1">
-        <v>58745.3678</v>
+        <v>58990.0976</v>
       </c>
       <c r="L8" s="1">
-        <v>9.1707</v>
+        <v>9.1906</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5775.0193</v>
+        <v>-5798.8272</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0765</v>
+        <v>0.0761</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.0875</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E9" s="1">
-        <v>6963.2079</v>
+        <v>6977.1494</v>
       </c>
       <c r="F9" s="1">
-        <v>1250.5919</v>
+        <v>1253.1314</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70241.3596</v>
+        <v>70241.056</v>
       </c>
       <c r="I9" s="1">
-        <v>5982.8954</v>
+        <v>5713.3522</v>
       </c>
       <c r="J9" s="1">
-        <v>76224.255</v>
+        <v>75954.40820000001</v>
       </c>
       <c r="K9" s="1">
-        <v>64520.3871</v>
+        <v>64788.9248</v>
       </c>
       <c r="L9" s="1">
-        <v>9.2659</v>
+        <v>9.2859</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12615.3461</v>
+        <v>-12666.2761</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0242</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>10.1692</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E10" s="1">
-        <v>8213.799800000001</v>
+        <v>8230.2808</v>
       </c>
       <c r="F10" s="1">
-        <v>998.8493999999999</v>
+        <v>1000.7958</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83527.77310000001</v>
+        <v>83528.2965</v>
       </c>
       <c r="I10" s="1">
-        <v>3367.5494</v>
+        <v>3047.0761</v>
       </c>
       <c r="J10" s="1">
-        <v>86895.3224</v>
+        <v>86575.3726</v>
       </c>
       <c r="K10" s="1">
-        <v>77135.7332</v>
+        <v>77455.2009</v>
       </c>
       <c r="L10" s="1">
-        <v>9.391</v>
+        <v>9.411</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1880.0661</v>
+        <v>1883.8303</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8277.433499999999</v>
+        <v>-8313.878199999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0078</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.0872</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E11" s="1">
-        <v>9212.6492</v>
+        <v>9231.076499999999</v>
       </c>
       <c r="F11" s="1">
-        <v>223.649</v>
+        <v>224.154</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>102142.4847</v>
+        <v>102141.8619</v>
       </c>
       <c r="I11" s="1">
-        <v>5090.1159</v>
+        <v>4733.1979</v>
       </c>
       <c r="J11" s="1">
-        <v>107232.6006</v>
+        <v>106875.0598</v>
       </c>
       <c r="K11" s="1">
-        <v>87293.2328</v>
+        <v>87652.9094</v>
       </c>
       <c r="L11" s="1">
-        <v>9.4754</v>
+        <v>9.4954</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2479.6407</v>
+        <v>-2490.2159</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1067</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.0976</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E12" s="1">
-        <v>9436.298199999999</v>
+        <v>9455.2305</v>
       </c>
       <c r="F12" s="1">
-        <v>986.5272</v>
+        <v>988.4868</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104720.2629</v>
+        <v>104720.4598</v>
       </c>
       <c r="I12" s="1">
-        <v>12610.4752</v>
+        <v>12242.982</v>
       </c>
       <c r="J12" s="1">
-        <v>117330.7381</v>
+        <v>116963.4418</v>
       </c>
       <c r="K12" s="1">
-        <v>89772.8735</v>
+        <v>90143.1254</v>
       </c>
       <c r="L12" s="1">
-        <v>9.5136</v>
+        <v>9.5337</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10948.0838</v>
+        <v>-10991.7757</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0008</v>
@@ -3569,49 +3569,49 @@
         <v>10.8505</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E13" s="1">
-        <v>10422.8254</v>
+        <v>10443.7173</v>
       </c>
       <c r="F13" s="1">
-        <v>1265.5789</v>
+        <v>1268.1095</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>113092.8665</v>
+        <v>113092.926</v>
       </c>
       <c r="I13" s="1">
-        <v>11662.3914</v>
+        <v>11251.2063</v>
       </c>
       <c r="J13" s="1">
-        <v>124755.2579</v>
+        <v>124344.1323</v>
       </c>
       <c r="K13" s="1">
-        <v>100720.9572</v>
+        <v>101134.901</v>
       </c>
       <c r="L13" s="1">
-        <v>9.663500000000001</v>
+        <v>9.6838</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4246.3342</v>
+        <v>4254.8537</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9485.829400000001</v>
+        <v>-9532.413200000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0202</v>
+        <v>-0.0206</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.8576</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E14" s="1">
-        <v>11688.4042</v>
+        <v>11711.8268</v>
       </c>
       <c r="F14" s="1">
-        <v>-11688.4042</v>
+        <v>-11711.8268</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>138596.422</v>
+        <v>138596.5873</v>
       </c>
       <c r="I14" s="1">
-        <v>12176.562</v>
+        <v>11718.7931</v>
       </c>
       <c r="J14" s="1">
-        <v>150772.984</v>
+        <v>150315.3804</v>
       </c>
       <c r="K14" s="1">
-        <v>114453.1209</v>
+        <v>114922.1679</v>
       </c>
       <c r="L14" s="1">
-        <v>9.792</v>
+        <v>9.8125</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>138596.422</v>
+        <v>138596.5873</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1189</v>
@@ -3760,16 +3760,16 @@
         <v>8.9413</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>8.9801</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="F3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10043.3941</v>
+        <v>10003.2369</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0043</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>8.6477</v>
       </c>
       <c r="C4" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D4" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2231.9789</v>
+        <v>2227.5168</v>
       </c>
       <c r="F4" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19301.4843</v>
+        <v>19224.3611</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19301.4843</v>
+        <v>19224.3611</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.960699999999999</v>
+        <v>8.9786</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9496.717500000001</v>
+        <v>-9497.723</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.037</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>3388.3558</v>
+        <v>3381.5849</v>
       </c>
       <c r="F5" s="1">
-        <v>886.8518</v>
+        <v>902.1733</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32422.8377</v>
+        <v>32293.4595</v>
       </c>
       <c r="I5" s="1">
-        <v>503.2825</v>
+        <v>502.277</v>
       </c>
       <c r="J5" s="1">
-        <v>32926.1202</v>
+        <v>32795.7365</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>8.853899999999999</v>
+        <v>8.871600000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8486.196099999999</v>
+        <v>-8650.127500000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1237</v>
+        <v>0.1222</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E6" s="1">
-        <v>4275.2076</v>
+        <v>4283.7582</v>
       </c>
       <c r="F6" s="1">
-        <v>1188.8378</v>
+        <v>1191.2611</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40312.6423</v>
+        <v>40312.3062</v>
       </c>
       <c r="I6" s="1">
-        <v>2017.0865</v>
+        <v>1852.1495</v>
       </c>
       <c r="J6" s="1">
-        <v>42329.7288</v>
+        <v>42164.4558</v>
       </c>
       <c r="K6" s="1">
-        <v>38486.1961</v>
+        <v>38650.1275</v>
       </c>
       <c r="L6" s="1">
-        <v>9.0022</v>
+        <v>9.022500000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11210.027</v>
+        <v>-11255.3927</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0139</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D7" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E7" s="1">
-        <v>5464.0454</v>
+        <v>5475.0193</v>
       </c>
       <c r="F7" s="1">
-        <v>1022.4351</v>
+        <v>1024.387</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>52476.1452</v>
+        <v>52476.9651</v>
       </c>
       <c r="I7" s="1">
-        <v>807.0595</v>
+        <v>596.7568</v>
       </c>
       <c r="J7" s="1">
-        <v>53283.2047</v>
+        <v>53073.722</v>
       </c>
       <c r="K7" s="1">
-        <v>49696.223</v>
+        <v>49905.5201</v>
       </c>
       <c r="L7" s="1">
-        <v>9.0951</v>
+        <v>9.1151</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9819.466399999999</v>
+        <v>-9857.983099999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0182</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.3595</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E8" s="1">
-        <v>6486.4804</v>
+        <v>6499.4063</v>
       </c>
       <c r="F8" s="1">
-        <v>582.388</v>
+        <v>583.6151</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67196.6939</v>
+        <v>67196.0616</v>
       </c>
       <c r="I8" s="1">
-        <v>987.5931</v>
+        <v>738.7738000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>68184.287</v>
+        <v>67934.8354</v>
       </c>
       <c r="K8" s="1">
-        <v>59515.6894</v>
+        <v>59763.5032</v>
       </c>
       <c r="L8" s="1">
-        <v>9.1753</v>
+        <v>9.1952</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6033.248</v>
+        <v>-6058.1003</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0774</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.0875</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E9" s="1">
-        <v>7068.8684</v>
+        <v>7083.0214</v>
       </c>
       <c r="F9" s="1">
-        <v>1290.8234</v>
+        <v>1293.4441</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71307.20970000001</v>
+        <v>71306.9016</v>
       </c>
       <c r="I9" s="1">
-        <v>4954.3451</v>
+        <v>4680.6734</v>
       </c>
       <c r="J9" s="1">
-        <v>76261.5548</v>
+        <v>75987.5751</v>
       </c>
       <c r="K9" s="1">
-        <v>65548.9374</v>
+        <v>65821.6036</v>
       </c>
       <c r="L9" s="1">
-        <v>9.2729</v>
+        <v>9.292899999999999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-13021.1813</v>
+        <v>-13073.7446</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0246</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>10.1692</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E10" s="1">
-        <v>8359.691800000001</v>
+        <v>8376.4655</v>
       </c>
       <c r="F10" s="1">
-        <v>1040.5872</v>
+        <v>1042.6161</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85011.37790000001</v>
+        <v>85011.9106</v>
       </c>
       <c r="I10" s="1">
-        <v>1933.1638</v>
+        <v>1606.9288</v>
       </c>
       <c r="J10" s="1">
-        <v>86944.5416</v>
+        <v>86618.8395</v>
       </c>
       <c r="K10" s="1">
-        <v>78570.1188</v>
+        <v>78895.3481</v>
       </c>
       <c r="L10" s="1">
-        <v>9.3987</v>
+        <v>9.418699999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1908.5945</v>
+        <v>1912.4158</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8673.3446</v>
+        <v>-8711.424999999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.0872</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E11" s="1">
-        <v>9400.279</v>
+        <v>9419.0816</v>
       </c>
       <c r="F11" s="1">
-        <v>252.9443</v>
+        <v>253.5092</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>104222.773</v>
+        <v>104222.1376</v>
       </c>
       <c r="I11" s="1">
-        <v>3259.8192</v>
+        <v>2895.5039</v>
       </c>
       <c r="J11" s="1">
-        <v>107482.5922</v>
+        <v>107117.6414</v>
       </c>
       <c r="K11" s="1">
-        <v>89152.0578</v>
+        <v>89519.18889999999</v>
       </c>
       <c r="L11" s="1">
-        <v>9.484</v>
+        <v>9.504</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2804.4437</v>
+        <v>-2816.3349</v>
       </c>
       <c r="Q11" s="3">
         <v>0.1087</v>
@@ -4284,34 +4284,34 @@
         <v>11.0976</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E12" s="1">
-        <v>9653.2232</v>
+        <v>9672.5908</v>
       </c>
       <c r="F12" s="1">
-        <v>1036.712</v>
+        <v>1038.7718</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107127.6102</v>
+        <v>107127.8116</v>
       </c>
       <c r="I12" s="1">
-        <v>10455.3755</v>
+        <v>10079.1689</v>
       </c>
       <c r="J12" s="1">
-        <v>117582.9857</v>
+        <v>117206.9806</v>
       </c>
       <c r="K12" s="1">
-        <v>91956.5015</v>
+        <v>92335.5238</v>
       </c>
       <c r="L12" s="1">
-        <v>9.526</v>
+        <v>9.546099999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11505.0147</v>
+        <v>-11550.9348</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>10.8505</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E13" s="1">
-        <v>10689.9352</v>
+        <v>10711.3626</v>
       </c>
       <c r="F13" s="1">
-        <v>1329.0606</v>
+        <v>1331.7183</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115991.1419</v>
+        <v>115991.2029</v>
       </c>
       <c r="I13" s="1">
-        <v>8950.3608</v>
+        <v>8528.234200000001</v>
       </c>
       <c r="J13" s="1">
-        <v>124941.5027</v>
+        <v>124519.4371</v>
       </c>
       <c r="K13" s="1">
-        <v>103461.5162</v>
+        <v>103886.4586</v>
       </c>
       <c r="L13" s="1">
-        <v>9.6784</v>
+        <v>9.698700000000001</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4343.9505</v>
+        <v>4352.6658</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10077.0219</v>
+        <v>-10126.1753</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0207</v>
+        <v>-0.0211</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.8576</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E14" s="1">
-        <v>12018.9958</v>
+        <v>12043.0809</v>
       </c>
       <c r="F14" s="1">
-        <v>-12018.9958</v>
+        <v>-12043.0809</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>142516.445</v>
+        <v>142516.6149</v>
       </c>
       <c r="I14" s="1">
-        <v>8873.338900000001</v>
+        <v>8402.0589</v>
       </c>
       <c r="J14" s="1">
-        <v>151389.7839</v>
+        <v>150918.6738</v>
       </c>
       <c r="K14" s="1">
-        <v>117882.4886</v>
+        <v>118365.2997</v>
       </c>
       <c r="L14" s="1">
-        <v>9.808</v>
+        <v>9.8285</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>142516.445</v>
+        <v>142516.6149</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1219</v>
@@ -4450,10 +4450,10 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.8552</v>
+        <v>9.8749</v>
       </c>
       <c r="D3" s="1">
-        <v>9.759499999999999</v>
+        <v>9.780200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>9.7759</v>
+        <v>9.7963</v>
       </c>
       <c r="F3" s="1">
-        <v>9.792</v>
+        <v>9.8125</v>
       </c>
       <c r="G3" s="1">
-        <v>9.808</v>
+        <v>9.8285</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.3001</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3728</v>
+        <v>0.3606</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3511</v>
+        <v>0.3404</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3562</v>
+        <v>0.3455</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3615</v>
+        <v>0.3506</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3669</v>
+        <v>0.3559</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1732</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2042</v>
+        <v>0.2048</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1919</v>
+        <v>0.1928</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1943</v>
+        <v>0.1952</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1968</v>
+        <v>0.1977</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1994</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.6152</v>
       </c>
       <c r="C6" s="4">
-        <v>1.7263</v>
+        <v>1.6612</v>
       </c>
       <c r="D6" s="4">
-        <v>1.7241</v>
+        <v>1.66</v>
       </c>
       <c r="E6" s="4">
-        <v>1.7285</v>
+        <v>1.6656</v>
       </c>
       <c r="F6" s="4">
-        <v>1.7332</v>
+        <v>1.6703</v>
       </c>
       <c r="G6" s="4">
-        <v>1.7378</v>
+        <v>1.6748</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5366</v>
+        <v>0.5259</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5432</v>
+        <v>0.5326</v>
       </c>
       <c r="E7" s="3">
-        <v>0.544</v>
+        <v>0.5334</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5449000000000001</v>
+        <v>0.5342</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5458</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7249.3674</v>
+        <v>7234.763</v>
       </c>
       <c r="D8" s="1">
-        <v>6386.4293</v>
+        <v>6397.2197</v>
       </c>
       <c r="E8" s="1">
-        <v>6506.5745</v>
+        <v>6517.6059</v>
       </c>
       <c r="F8" s="1">
-        <v>6629.6828</v>
+        <v>6640.961</v>
       </c>
       <c r="G8" s="1">
-        <v>6755.8274</v>
+        <v>6767.3586</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P4_KFSDIV.xlsx
+++ b/output/1Y_P4_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8084.1414</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2398</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3875</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3529</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.3191</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
